--- a/mining_rig_pricing.xlsx
+++ b/mining_rig_pricing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\GitHub\miner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="95" documentId="9ABAC6A932E6143539DE01F81356579394B9F332" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DA8248EB-AC6B-4444-B250-7A6DBE3B0700}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{2B7EA25C-09E9-47D2-8510-3AC7766D029D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" xr2:uid="{2B7EA25C-09E9-47D2-8510-3AC7766D029D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Geil 4GB</t>
   </si>
@@ -99,15 +100,6 @@
   </si>
   <si>
     <t>Store</t>
-  </si>
-  <si>
-    <t>Business Card</t>
-  </si>
-  <si>
-    <t>Personal Card</t>
-  </si>
-  <si>
-    <t>Paid With</t>
   </si>
   <si>
     <t>Price</t>
@@ -504,36 +496,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6AC88-69BB-4E35-9153-7C95A6E56692}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -544,11 +536,8 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -565,8 +554,8 @@
         <v>4.21</v>
       </c>
       <c r="F2">
-        <f>(C2*D2)-E2</f>
-        <v>50.78</v>
+        <f>(C2*D2)+E2</f>
+        <v>59.2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -574,11 +563,8 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -595,8 +581,8 @@
         <v>3.99</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">(C3*D3)-E3</f>
-        <v>131</v>
+        <f t="shared" ref="F3:F11" si="0">(C3*D3)+E3</f>
+        <v>138.98000000000002</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -604,11 +590,8 @@
       <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -634,11 +617,8 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -664,11 +644,8 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -679,14 +656,14 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>419.99</v>
+        <v>480</v>
       </c>
       <c r="E6">
         <v>4.99</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>484.99</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -694,11 +671,8 @@
       <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -709,14 +683,14 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>439.99</v>
+        <v>480</v>
       </c>
       <c r="E7">
         <v>33.659999999999997</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>406.33000000000004</v>
+        <v>513.66</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -724,11 +698,8 @@
       <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -739,14 +710,14 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>394.99</v>
+        <v>480</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>789.98</v>
+        <v>960</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -754,11 +725,8 @@
       <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -784,11 +752,8 @@
       <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -814,11 +779,8 @@
       <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -844,18 +806,15 @@
       <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F12" s="1">
         <f>SUM(F2:F11)</f>
-        <v>2167.9899999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+        <v>2531.7299999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" s="2"/>
     </row>
   </sheetData>
